--- a/data/Spreadsheet_Data/Documentation.xlsx
+++ b/data/Spreadsheet_Data/Documentation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noemivillars-amberg/Documents/daschland-scripts/data/Spreadsheet_Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B084B848-9FC1-3343-961A-9819925D99F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{116E193E-03DF-7B45-89B0-64DC42CAFFC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26600" yWindow="12620" windowWidth="28040" windowHeight="17440" xr2:uid="{B43DECCB-7160-C844-BDA3-E6330E4A253D}"/>
+    <workbookView xWindow="31280" yWindow="7620" windowWidth="28040" windowHeight="17440" xr2:uid="{B43DECCB-7160-C844-BDA3-E6330E4A253D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>ID</t>
   </si>
@@ -48,6 +48,18 @@
   </si>
   <si>
     <t>Description</t>
+  </si>
+  <si>
+    <t>Data Model Links.png</t>
+  </si>
+  <si>
+    <t>Data Model Links</t>
+  </si>
+  <si>
+    <t>data/Multimedia_Data/Documentation/</t>
+  </si>
+  <si>
+    <t>DOC_001</t>
   </si>
 </sst>
 </file>
@@ -419,13 +431,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E56BEE1F-058C-DF44-80E1-DAB20F6DF233}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.6640625" customWidth="1"/>
+    <col min="4" max="4" width="34.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -439,6 +456,20 @@
       </c>
       <c r="D1" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/data/Spreadsheet_Data/Documentation.xlsx
+++ b/data/Spreadsheet_Data/Documentation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noemivillars-amberg/Documents/daschland-scripts/data/Spreadsheet_Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{116E193E-03DF-7B45-89B0-64DC42CAFFC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B562937D-7488-754F-B359-6B45D446B84F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="31280" yWindow="7620" windowWidth="28040" windowHeight="17440" xr2:uid="{B43DECCB-7160-C844-BDA3-E6330E4A253D}"/>
   </bookViews>
@@ -50,9 +50,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Data Model Links.png</t>
-  </si>
-  <si>
     <t>Data Model Links</t>
   </si>
   <si>
@@ -60,6 +57,9 @@
   </si>
   <si>
     <t>DOC_001</t>
+  </si>
+  <si>
+    <t>Data Model Links.pdf</t>
   </si>
 </sst>
 </file>
@@ -434,7 +434,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -460,16 +460,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/data/Spreadsheet_Data/Documentation.xlsx
+++ b/data/Spreadsheet_Data/Documentation.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noemivillars-amberg/Documents/daschland-scripts/data/Spreadsheet_Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB5C3347-5480-BD44-9360-28C328D5A0B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2079B165-A6FD-024B-98E4-D250C46347A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="16420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15400" yWindow="800" windowWidth="49920" windowHeight="25380" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -369,7 +369,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -380,7 +380,7 @@
     <col min="5" max="5" width="11.5" customWidth="1"/>
     <col min="6" max="6" width="13.5" customWidth="1"/>
     <col min="7" max="7" width="66.83203125" customWidth="1"/>
-    <col min="8" max="8" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="17" x14ac:dyDescent="0.2">
